--- a/datos/Libro1.xlsx
+++ b/datos/Libro1.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="16515" windowHeight="2385"/>
+    <workbookView xWindow="360" yWindow="60" windowWidth="16515" windowHeight="2385" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="institucion" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="188">
   <si>
     <t>Abarca</t>
   </si>
@@ -562,6 +562,24 @@
   </si>
   <si>
     <t>Yanci Steeffany</t>
+  </si>
+  <si>
+    <t>Centro Escolar Presbítero Norberto Marroquí</t>
+  </si>
+  <si>
+    <t>Instituto Nacional de San José Verapaz</t>
+  </si>
+  <si>
+    <t>Instituto Nacional Dr. Sarvelio Navarrete</t>
+  </si>
+  <si>
+    <t>Escuela católica, San Jose Verapaz</t>
+  </si>
+  <si>
+    <t>Alcaldía Municipal, San José Verapaz</t>
+  </si>
+  <si>
+    <t>Otros</t>
   </si>
 </sst>
 </file>
@@ -927,8 +945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1592,13 +1610,65 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/datos/Libro1.xlsx
+++ b/datos/Libro1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="16515" windowHeight="2385" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="60" windowWidth="16515" windowHeight="2385"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="184">
   <si>
     <t>Abarca</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Durán González</t>
   </si>
   <si>
-    <t>España Mejia</t>
-  </si>
-  <si>
     <t>Franco Alvarado</t>
   </si>
   <si>
@@ -156,9 +153,6 @@
     <t>Gerson Bladimir</t>
   </si>
   <si>
-    <t>Julio César</t>
-  </si>
-  <si>
     <t>Oscar Adonay</t>
   </si>
   <si>
@@ -270,9 +264,6 @@
     <t>3742-3829</t>
   </si>
   <si>
-    <t>2453-48392</t>
-  </si>
-  <si>
     <t>7394-39392</t>
   </si>
   <si>
@@ -379,9 +370,6 @@
   </si>
   <si>
     <t xml:space="preserve"> MIGUEL HIDALGO NO 689 LAZARO CARDENAS TUXTEPEC</t>
-  </si>
-  <si>
-    <t>CARR. A OJITLAN NO. 951-A COL. 5 DE MAYO TUXTEPEC</t>
   </si>
   <si>
     <t>BOULEVARD BENITO JUAREZ ESQ. INDEPENDENCIA LA PIRAGUA</t>
@@ -943,10 +931,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="C24" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -954,654 +942,788 @@
     <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.7109375" customWidth="1"/>
     <col min="5" max="5" width="37.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="E1" t="str">
+        <f>PROPER(D1)</f>
+        <v>Calle Agustin Lara No. 69-B Col. Ex-Normal Tuxtepec</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="E2" t="str">
+        <f t="shared" ref="E2:E37" si="0">PROPER(D2)</f>
+        <v xml:space="preserve"> Av. Principal S/N. Temascal</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D3" t="s">
-        <v>112</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> Principal S/N. Temazcal. Sn.Miguel Soyaltepec</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D4" t="s">
-        <v>113</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>Av. Independencia No. 1457 Col.La Piragua Tuxtepec</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D5" t="s">
-        <v>114</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> Av. 5 De Mayo No. 551 Col.Centro Tuxtepec</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D6" t="s">
-        <v>115</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> Prol. Av 5 De Mayo No 109 Maria Eugenia Tuxepec</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D7" t="s">
-        <v>116</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> Centro Pinero Matamoros No 71</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D8" t="s">
-        <v>117</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> Matamoros 40 Centro</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D9" t="s">
-        <v>118</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>Benito Juarez 25 Centro</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D10" t="s">
-        <v>119</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>Blvd. Benito Juarez No. 197-A Col.Oaxaca Tuxtepec</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" t="s">
+        <v>117</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> Miguel Hidalgo No 689 Lazaro Cardenas Tuxtepec</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
         <v>45</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" t="s">
+        <v>118</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>Boulevard Benito Juarez Esq. Independencia La Piragua</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" t="s">
         <v>83</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D14" t="s">
+        <v>119</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> Av. 5 De Mayo No. 1400 Col.Centro Tuxtepec.Oax.</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" t="s">
         <v>120</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> Av. Independencia No 531 Centro Tuxtepec</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" t="s">
+        <v>121</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> Plan De Ayala S/N. Adolfo Lopez Mateos</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" t="s">
-        <v>84</v>
-      </c>
-      <c r="D12" t="s">
-        <v>121</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" t="s">
-        <v>85</v>
-      </c>
-      <c r="D13" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" t="s">
         <v>122</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> Av. Independencia No 171 Centro Tuxtepec</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
+    <row r="18" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" t="s">
+        <v>123</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v>Av. Independencia No.166 Col.Centro</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" t="s">
+        <v>124</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> Av. Libertad No. 1961 Col. La Piragua Tuxtepec</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" t="s">
+        <v>125</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="0"/>
+        <v>Av. 5 De Mayo No. 1690 La Piragua</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
         <v>53</v>
       </c>
-      <c r="C14" t="s">
-        <v>86</v>
-      </c>
-      <c r="D14" t="s">
-        <v>123</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" t="s">
-        <v>87</v>
-      </c>
-      <c r="D15" t="s">
-        <v>124</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D16" t="s">
-        <v>125</v>
-      </c>
-      <c r="E16" s="2" t="s">
+      <c r="C21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D21" t="s">
+        <v>126</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> Calle Matamoros No. 40 Col.Centro Tuxtepec</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" t="s">
-        <v>89</v>
-      </c>
-      <c r="D17" t="s">
-        <v>126</v>
-      </c>
-      <c r="E17" s="3" t="s">
+    <row r="22" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D22" t="s">
+        <v>127</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> Av. 5 De Mayo Esq. Matamoros No 1070 Centro Tuxtepec</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" t="s">
-        <v>90</v>
-      </c>
-      <c r="D18" t="s">
-        <v>127</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" t="s">
-        <v>91</v>
-      </c>
-      <c r="D19" t="s">
+    <row r="23" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" t="s">
         <v>128</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> Aldama No 1212 Lazaro Cardenas Tuxtepec</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" t="s">
-        <v>92</v>
-      </c>
-      <c r="D20" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" t="s">
         <v>129</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> Carr. A Ojitlan No. 951-A Col. 5 De Mayo Tuxtepec</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" t="s">
-        <v>93</v>
-      </c>
-      <c r="D21" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" t="s">
         <v>130</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> Avenida 3 Calle 2 Fraccionamiento Costa Verde</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" t="s">
-        <v>94</v>
-      </c>
-      <c r="D22" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" t="s">
+        <v>95</v>
+      </c>
+      <c r="D26" t="s">
         <v>131</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E26" t="str">
+        <f t="shared" si="0"/>
+        <v>Calle Sebastian Ortiz No 690 Centro Tuxtepec</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" t="s">
-        <v>95</v>
-      </c>
-      <c r="D23" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27" t="s">
         <v>132</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> C 1O De Mayo No 4 Ampl.Mexico Loma Bonita</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" t="s">
-        <v>96</v>
-      </c>
-      <c r="D24" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" t="s">
+        <v>97</v>
+      </c>
+      <c r="D28" t="s">
         <v>133</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> Daniel Soto No 354 Maria Luisa Tuxtepec</v>
+      </c>
+      <c r="F28" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>59</v>
-      </c>
-      <c r="C25" t="s">
-        <v>97</v>
-      </c>
-      <c r="D25" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" t="s">
+        <v>98</v>
+      </c>
+      <c r="D29" t="s">
         <v>134</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> Av. Independencia No 117 La Piragua Tuxtepec</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>60</v>
-      </c>
-      <c r="C26" t="s">
-        <v>98</v>
-      </c>
-      <c r="D26" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30" t="s">
         <v>135</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E30" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> Av. Jesus Carranza No 1651 Altos El Reposo Tuxtepec</v>
+      </c>
+      <c r="F30" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>61</v>
-      </c>
-      <c r="C27" t="s">
-        <v>99</v>
-      </c>
-      <c r="D27" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" t="s">
+        <v>100</v>
+      </c>
+      <c r="D31" t="s">
         <v>136</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E31" t="str">
+        <f t="shared" si="0"/>
+        <v>Mariano Arista No 454 Centro Tuxtepec</v>
+      </c>
+      <c r="F31" s="3" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>62</v>
-      </c>
-      <c r="C28" t="s">
-        <v>100</v>
-      </c>
-      <c r="D28" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" t="s">
+        <v>101</v>
+      </c>
+      <c r="D32" t="s">
         <v>137</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E32" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> Matamoros No 149 Centro Tuxtepec</v>
+      </c>
+      <c r="F32" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>63</v>
-      </c>
-      <c r="C29" t="s">
-        <v>101</v>
-      </c>
-      <c r="D29" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" t="s">
+        <v>102</v>
+      </c>
+      <c r="D33" t="s">
         <v>138</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E33" t="str">
+        <f t="shared" si="0"/>
+        <v>Av. Independencia No. 608 Col.Centro Tuxtepec.Oax.</v>
+      </c>
+      <c r="F33" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>64</v>
-      </c>
-      <c r="C30" t="s">
-        <v>102</v>
-      </c>
-      <c r="D30" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" t="s">
+        <v>103</v>
+      </c>
+      <c r="D34" t="s">
         <v>139</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E34" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> Av. 5 De Mayo No 1014 Centro Tuxtepec</v>
+      </c>
+      <c r="F34" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>65</v>
-      </c>
-      <c r="C31" t="s">
-        <v>103</v>
-      </c>
-      <c r="D31" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" t="s">
+        <v>104</v>
+      </c>
+      <c r="D35" t="s">
         <v>140</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E35" t="str">
+        <f t="shared" si="0"/>
+        <v>Miguel Hidalgo No 409 Centro Tuxtepec</v>
+      </c>
+      <c r="F35" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>66</v>
-      </c>
-      <c r="C32" t="s">
-        <v>104</v>
-      </c>
-      <c r="D32" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" t="s">
+        <v>105</v>
+      </c>
+      <c r="D36" t="s">
         <v>141</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E36" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> Av.Independencia No 672 Centro Tuxtepec</v>
+      </c>
+      <c r="F36" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>68</v>
-      </c>
-      <c r="B33" t="s">
-        <v>67</v>
-      </c>
-      <c r="C33" t="s">
-        <v>105</v>
-      </c>
-      <c r="D33" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" t="s">
+        <v>106</v>
+      </c>
+      <c r="D37" t="s">
         <v>142</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E37" t="str">
+        <f t="shared" si="0"/>
+        <v>Av. Independencia No 531 Centro Tuxtepec</v>
+      </c>
+      <c r="F37" t="s">
         <v>176</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" t="s">
-        <v>69</v>
-      </c>
-      <c r="C34" t="s">
-        <v>106</v>
-      </c>
-      <c r="D34" t="s">
-        <v>143</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" t="s">
-        <v>70</v>
-      </c>
-      <c r="C35" t="s">
-        <v>107</v>
-      </c>
-      <c r="D35" t="s">
-        <v>144</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36" t="s">
-        <v>71</v>
-      </c>
-      <c r="C36" t="s">
-        <v>108</v>
-      </c>
-      <c r="D36" t="s">
-        <v>145</v>
-      </c>
-      <c r="E36" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37" t="s">
-        <v>72</v>
-      </c>
-      <c r="C37" t="s">
-        <v>109</v>
-      </c>
-      <c r="D37" t="s">
-        <v>146</v>
-      </c>
-      <c r="E37" t="s">
-        <v>180</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
-    <hyperlink ref="E21" r:id="rId3" display="mailto:billyjoe@happycompany.com"/>
-    <hyperlink ref="E24" r:id="rId4"/>
-    <hyperlink ref="E25" r:id="rId5"/>
-    <hyperlink ref="E26" r:id="rId6"/>
-    <hyperlink ref="E27" r:id="rId7"/>
-    <hyperlink ref="E29" r:id="rId8"/>
-    <hyperlink ref="E31" r:id="rId9"/>
-    <hyperlink ref="E34" r:id="rId10"/>
-    <hyperlink ref="E35" r:id="rId11"/>
-    <hyperlink ref="E17" r:id="rId12"/>
-    <hyperlink ref="E9" r:id="rId13"/>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId2"/>
+    <hyperlink ref="F21" r:id="rId3" display="mailto:billyjoe@happycompany.com"/>
+    <hyperlink ref="F24" r:id="rId4"/>
+    <hyperlink ref="F25" r:id="rId5"/>
+    <hyperlink ref="F26" r:id="rId6"/>
+    <hyperlink ref="F27" r:id="rId7"/>
+    <hyperlink ref="F29" r:id="rId8"/>
+    <hyperlink ref="F31" r:id="rId9"/>
+    <hyperlink ref="F34" r:id="rId10"/>
+    <hyperlink ref="F35" r:id="rId11"/>
+    <hyperlink ref="F17" r:id="rId12"/>
+    <hyperlink ref="F9" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
@@ -1612,7 +1734,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -1623,7 +1745,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1631,7 +1753,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1639,7 +1761,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1647,7 +1769,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1655,7 +1777,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1663,7 +1785,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
